--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rc3ea247facc3447f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R898c9ec266484eea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R898c9ec266484eea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf9b88322b7a64247"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf9b88322b7a64247"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rac9cf72242864e6a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rac9cf72242864e6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R2477685d928040d8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -29,13 +29,13 @@
       <x:b/>
       <x:i/>
       <x:sz val="14"/>
-      <x:color rgb="0000FF"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="16"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -48,13 +48,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="E0E0E0"/>
+        <x:fgColor rgb="FFE0E0E0"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -63,30 +63,30 @@
     <x:border/>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
   </x:borders>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R2477685d928040d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Ref8e6ea1f2de456d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Ref8e6ea1f2de456d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rbb786e4446114504"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rbb786e4446114504"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7b24839a6739490b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7b24839a6739490b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R33ddf515c9044c24"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R33ddf515c9044c24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R655cc2d8391148d0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R655cc2d8391148d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd542c84b5b36462c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd542c84b5b36462c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R54747336a2c945af"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R54747336a2c945af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rbc3c6c362e964a0b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rbc3c6c362e964a0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R9ce33bdd7a094f68"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R9ce33bdd7a094f68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd49b7f9b87a6437b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd49b7f9b87a6437b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4c7c223b4d2546c5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4c7c223b4d2546c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R299eab694fb0477b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R299eab694fb0477b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7604820cf6a44a57"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7604820cf6a44a57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R119ccad5ea8b4804"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R119ccad5ea8b4804"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R78843e5ba66c4fd7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R78843e5ba66c4fd7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R3dba93e81ce5485a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R3dba93e81ce5485a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7d5231824437499e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R7d5231824437499e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R1de090c60e6c4553"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R1de090c60e6c4553"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R035032fd47604b7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R035032fd47604b7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R5fefe0b91bc64aa7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R5fefe0b91bc64aa7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf3674060f7074b90"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf3674060f7074b90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R22577bf9a68545a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R22577bf9a68545a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R3829112f5a3f4dd1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R3829112f5a3f4dd1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Ra50558d8e1124227"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Ra50558d8e1124227"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd27bafe504c7488f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd27bafe504c7488f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R20b93f32e8f4488c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R20b93f32e8f4488c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf86918d6ddf1483f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf86918d6ddf1483f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R6440dca52cc94a65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R6440dca52cc94a65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf8e525d5239246e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rf8e525d5239246e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rc38366a100aa455b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rc38366a100aa455b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4abd345cc36c414a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4abd345cc36c414a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R713e1f384f9147fb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R713e1f384f9147fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8062efc6588b4c43"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8062efc6588b4c43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R625ca18d400c4190"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R625ca18d400c4190"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R9d9d22a065344a6d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R9d9d22a065344a6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R842fd40984e5498d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R842fd40984e5498d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R84ffe739397f4215"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R84ffe739397f4215"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rccef41cd7f5d439c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rccef41cd7f5d439c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4849bd60f9bd40a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R4849bd60f9bd40a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R058a36778c2d47f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/09_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R058a36778c2d47f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Reec2a452c4a64141"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
